--- a/doc/hybridMethod/elpHybrid.xlsx
+++ b/doc/hybridMethod/elpHybrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\hybridMethod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C82C398-28F8-4B86-A944-F838357D3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2E3E3-F7DF-4AA1-A0DF-04EDAB4ACB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="6680" windowWidth="14670" windowHeight="15200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>dimension</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>diffpower</t>
+  </si>
+  <si>
+    <t>DIMENSION</t>
+  </si>
+  <si>
+    <t>PROPOSED</t>
+  </si>
+  <si>
+    <t>GENETIC</t>
+  </si>
+  <si>
+    <t>IPSO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ELP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -277,7 +298,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +320,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -1415,6 +1445,1927 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Comparison of function calls for ELP problem with different dimensions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16670</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12CB-4869-81E3-AC9775A295DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GENETIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12CB-4869-81E3-AC9775A295DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-12CB-4869-81E3-AC9775A295DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$36:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-12CB-4869-81E3-AC9775A295DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="734176591"/>
+        <c:axId val="604655471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>elp!$C$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DIMENSION</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>elp!$D$32:$M$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>elp!$D$32:$M$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-12CB-4869-81E3-AC9775A295DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="734176591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604655471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604655471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Function</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> calls</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734176591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Comparison of times for ELP problem with different dimensions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7479999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.773999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.536999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C54D-4FC5-AEAC-1117E71F46DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GENETIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.428000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C54D-4FC5-AEAC-1117E71F46DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.361000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C54D-4FC5-AEAC-1117E71F46DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>elp!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>elp!$D$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>elp!$D$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C54D-4FC5-AEAC-1117E71F46DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="811292895"/>
+        <c:axId val="741612463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="811292895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741612463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="741612463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811292895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1495,6 +3446,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1999,6 +4030,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2506,15 +5543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2542,15 +5579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:colOff>479425</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2570,6 +5607,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>288924</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Γράφημα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C649F00-7CF7-986E-88F9-A2AF3EC0507E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Γράφημα 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFBCD11-0FB1-8C9A-1F43-3169B24ED614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2875,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:M31"/>
+  <dimension ref="C3:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3117,77 +6226,404 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2820</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5337</v>
-      </c>
-      <c r="F30" s="5">
-        <v>7070</v>
-      </c>
-      <c r="G30" s="6">
-        <v>8715</v>
-      </c>
-      <c r="H30" s="5">
-        <v>10410</v>
-      </c>
-      <c r="I30" s="6">
-        <v>12491</v>
-      </c>
-      <c r="J30" s="5">
-        <v>14717</v>
-      </c>
-      <c r="K30" s="5">
-        <v>16670</v>
-      </c>
-      <c r="L30" s="5">
-        <v>19598</v>
-      </c>
-      <c r="M30" s="5">
-        <v>23062</v>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2">
+        <v>50</v>
+      </c>
+      <c r="I21" s="2">
+        <v>60</v>
+      </c>
+      <c r="J21" s="2">
+        <v>70</v>
+      </c>
+      <c r="K21" s="2">
+        <v>80</v>
+      </c>
+      <c r="L21" s="2">
+        <v>90</v>
+      </c>
+      <c r="M21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.137</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6.0410000000000004</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9.7479999999999993</v>
+      </c>
+      <c r="K22" s="2">
+        <v>14.773999999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <v>21.896999999999998</v>
+      </c>
+      <c r="M22" s="2">
+        <v>32.536999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4.7320000000000002</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6.7560000000000002</v>
+      </c>
+      <c r="K23" s="2">
+        <v>11.128</v>
+      </c>
+      <c r="L23" s="2">
+        <v>14.927</v>
+      </c>
+      <c r="M23" s="2">
+        <v>20.428000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.958</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="J24" s="2">
+        <v>7.9509999999999996</v>
+      </c>
+      <c r="K24" s="2">
+        <v>11.785</v>
+      </c>
+      <c r="L24" s="2">
+        <v>15.29</v>
+      </c>
+      <c r="M24" s="2">
+        <v>20.361000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I25" s="2">
+        <v>8.9879999999999995</v>
+      </c>
+      <c r="J25" s="2">
+        <v>14.805</v>
+      </c>
+      <c r="K25" s="2">
+        <v>21.731000000000002</v>
+      </c>
+      <c r="L25" s="2">
+        <v>32.673000000000002</v>
+      </c>
+      <c r="M25" s="2">
+        <v>47.68</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>20</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>30</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <v>40</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H32" s="7">
         <v>50</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>60</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J32" s="7">
         <v>70</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K32" s="7">
         <v>80</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L32" s="7">
         <v>90</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M32" s="7">
         <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2820</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5337</v>
+      </c>
+      <c r="F33" s="9">
+        <v>7070</v>
+      </c>
+      <c r="G33" s="10">
+        <v>8715</v>
+      </c>
+      <c r="H33" s="9">
+        <v>10410</v>
+      </c>
+      <c r="I33" s="10">
+        <v>12491</v>
+      </c>
+      <c r="J33" s="9">
+        <v>14717</v>
+      </c>
+      <c r="K33" s="9">
+        <v>16670</v>
+      </c>
+      <c r="L33" s="9">
+        <v>19598</v>
+      </c>
+      <c r="M33" s="9">
+        <v>23062</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9">
+        <v>3131</v>
+      </c>
+      <c r="E34" s="10">
+        <v>6160</v>
+      </c>
+      <c r="F34" s="9">
+        <v>9576</v>
+      </c>
+      <c r="G34" s="10">
+        <v>13028</v>
+      </c>
+      <c r="H34" s="9">
+        <v>16418</v>
+      </c>
+      <c r="I34" s="10">
+        <v>18564</v>
+      </c>
+      <c r="J34" s="9">
+        <v>19772</v>
+      </c>
+      <c r="K34" s="9">
+        <v>24644</v>
+      </c>
+      <c r="L34" s="9">
+        <v>27063</v>
+      </c>
+      <c r="M34" s="9">
+        <v>29004</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9">
+        <v>4397</v>
+      </c>
+      <c r="E35" s="9">
+        <v>6883</v>
+      </c>
+      <c r="F35" s="9">
+        <v>9438</v>
+      </c>
+      <c r="G35" s="9">
+        <v>11199</v>
+      </c>
+      <c r="H35" s="9">
+        <v>13315</v>
+      </c>
+      <c r="I35" s="9">
+        <v>15389</v>
+      </c>
+      <c r="J35" s="9">
+        <v>17453</v>
+      </c>
+      <c r="K35" s="9">
+        <v>19839</v>
+      </c>
+      <c r="L35" s="9">
+        <v>20909</v>
+      </c>
+      <c r="M35" s="9">
+        <v>22569</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="9">
+        <v>6288</v>
+      </c>
+      <c r="E36" s="9">
+        <v>10794</v>
+      </c>
+      <c r="F36" s="9">
+        <v>14172</v>
+      </c>
+      <c r="G36" s="9">
+        <v>18138</v>
+      </c>
+      <c r="H36" s="9">
+        <v>20515</v>
+      </c>
+      <c r="I36" s="9">
+        <v>24707</v>
+      </c>
+      <c r="J36" s="9">
+        <v>29587</v>
+      </c>
+      <c r="K36" s="9">
+        <v>31347</v>
+      </c>
+      <c r="L36" s="9">
+        <v>37914</v>
+      </c>
+      <c r="M36" s="9">
+        <v>41516</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J67" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C31:M31"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/doc/hybridMethod/elpHybrid.xlsx
+++ b/doc/hybridMethod/elpHybrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\hybridMethod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2E3E3-F7DF-4AA1-A0DF-04EDAB4ACB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA08F91A-C916-4450-8E5E-12C18271282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,10 +324,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1557,7 +1554,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>elp!$C$33</c:f>
@@ -1636,7 +1633,7 @@
             <c:numRef>
               <c:f>elp!$D$33:$M$33</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2820</c:v>
@@ -1680,7 +1677,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>elp!$C$34</c:f>
@@ -1759,7 +1756,7 @@
             <c:numRef>
               <c:f>elp!$D$34:$M$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3131</c:v>
@@ -1803,7 +1800,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>elp!$C$35</c:f>
@@ -1882,7 +1879,7 @@
             <c:numRef>
               <c:f>elp!$D$35:$M$35</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4397</c:v>
@@ -1926,7 +1923,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>elp!$C$36</c:f>
@@ -2005,7 +2002,7 @@
             <c:numRef>
               <c:f>elp!$D$36:$M$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6288</c:v>
@@ -2059,153 +2056,7 @@
         <c:smooth val="0"/>
         <c:axId val="734176591"/>
         <c:axId val="604655471"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>elp!$C$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>DIMENSION</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>elp!$D$32:$M$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>elp!$D$32:$M$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-12CB-4869-81E3-AC9775A295DD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="734176591"/>
@@ -5986,8 +5837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6479,34 +6330,34 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>2820</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>5337</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>7070</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>8715</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="7">
         <v>10410</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>12491</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="7">
         <v>14717</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="7">
         <v>16670</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="7">
         <v>19598</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="7">
         <v>23062</v>
       </c>
     </row>
@@ -6514,34 +6365,34 @@
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>3131</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>6160</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>9576</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>13028</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
         <v>16418</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>18564</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <v>19772</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="7">
         <v>24644</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="7">
         <v>27063</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="7">
         <v>29004</v>
       </c>
     </row>
@@ -6549,34 +6400,34 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>4397</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>6883</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>9438</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <v>11199</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <v>13315</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>15389</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="7">
         <v>17453</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="7">
         <v>19839</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="7">
         <v>20909</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="7">
         <v>22569</v>
       </c>
     </row>
@@ -6584,34 +6435,34 @@
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>6288</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>10794</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <v>14172</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>18138</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="7">
         <v>20515</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>24707</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="7">
         <v>29587</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="7">
         <v>31347</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="7">
         <v>37914</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="7">
         <v>41516</v>
       </c>
     </row>
